--- a/Arquivos/Engajamento_tela1.xlsx
+++ b/Arquivos/Engajamento_tela1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DED94F-A72F-41A5-AFDA-89900F4E9C8D}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2153CC-2279-4099-8A23-B7BE0A40130A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,10 +583,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218:B222"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2687,6 +2683,342 @@
         <v>17</v>
       </c>
     </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B223">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B224">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B225">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B229">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B230">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B231">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B232">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B233">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B234">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B237">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B239">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B240">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B243">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B245">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B247">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B248">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B249">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B251">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B253">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B254">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B255">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B256">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B257">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B258">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B259">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B260">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B262">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B263">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B264">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento_tela1.xlsx
+++ b/Arquivos/Engajamento_tela1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2153CC-2279-4099-8A23-B7BE0A40130A}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E1CD7A-3965-44A8-B624-211D3D2B8F6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,6 +585,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
@@ -882,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3019,6 +3023,342 @@
         <v>17</v>
       </c>
     </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B266">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B269">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B270">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B271">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B272">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B273">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B274">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B275">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B276">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B277">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B278">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B279">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B280">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B281">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B282">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B284">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B285">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B286">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B287">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B288">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B289">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B290">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B291">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B292">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B293">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B294">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B295">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B296">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B300">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B302">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B303">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B304">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B305">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B306">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento_tela1.xlsx
+++ b/Arquivos/Engajamento_tela1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E1CD7A-3965-44A8-B624-211D3D2B8F6E}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDD768A-D92A-4C9C-9183-8ED587574921}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,6 +3359,510 @@
         <v>22</v>
       </c>
     </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B307">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B308">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B309">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B310">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B311">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B312">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B313">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B314">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B316">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B320">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B322">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B324">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="3">
+        <v>45464</v>
+      </c>
+      <c r="B325">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B326">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>45466</v>
+      </c>
+      <c r="B327">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B328">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B329">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B330">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B331">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B332">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B333">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B334">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B335">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B336">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B337">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B338">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B339">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B340">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B342">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B343">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B344">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B345">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B346">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B347">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B349">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B350">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B351">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B352">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B355">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B356">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B357">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B358">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B359">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B360">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B361">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="3">
+        <v>45501</v>
+      </c>
+      <c r="B362">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="3">
+        <v>45502</v>
+      </c>
+      <c r="B363">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="3">
+        <v>45503</v>
+      </c>
+      <c r="B364">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B365">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="3">
+        <v>45505</v>
+      </c>
+      <c r="B366">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B367">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="3">
+        <v>45507</v>
+      </c>
+      <c r="B368">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="3">
+        <v>45508</v>
+      </c>
+      <c r="B369">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
